--- a/admin/uploads/data_ppdb_sd_tes_importdata.xlsx
+++ b/admin/uploads/data_ppdb_sd_tes_importdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\format excel import data siswa aplikasi daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DC385-3317-4B05-B4BF-FB605B470509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F5320-5672-4F6F-B020-C87F5D7E5C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="617">
   <si>
     <t>pendaftaran_kelas</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3945,10 +3945,10 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>604</v>
+        <v>447</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>605</v>
+        <v>448</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>104</v>
@@ -3960,16 +3960,16 @@
         <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H7" s="6">
-        <v>43614</v>
+        <v>43466</v>
       </c>
       <c r="I7" s="2">
         <v>2</v>
       </c>
       <c r="J7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>101</v>
@@ -3984,22 +3984,22 @@
         <v>66</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>358</v>
+        <v>450</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>359</v>
+        <v>193</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>85</v>
@@ -4023,88 +4023,88 @@
         <v>100</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>360</v>
+        <v>451</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>195</v>
+        <v>452</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>608</v>
+        <v>454</v>
       </c>
       <c r="AJ7" s="6">
-        <v>30936</v>
+        <v>31085</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>610</v>
+        <v>78</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="AO7" s="2">
-        <v>85218843520</v>
+        <v>8121572844</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>607</v>
+        <v>456</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>609</v>
+        <v>457</v>
       </c>
       <c r="AR7" s="6">
-        <v>31060</v>
+        <v>31647</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AU7" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="AW7" s="2">
-        <v>81213701119</v>
+        <v>81315988160</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AY7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="BD7" s="4" t="s">
         <v>89</v>
@@ -4113,27 +4113,27 @@
         <v>89</v>
       </c>
       <c r="BF7" s="2">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH7" s="6" t="s">
-        <v>177</v>
+        <v>81</v>
+      </c>
+      <c r="BH7" s="6">
+        <v>45615.352465277778</v>
       </c>
       <c r="BI7" s="2">
-        <v>202502007</v>
+        <v>202502008</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>447</v>
+        <v>388</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>104</v>
@@ -4142,13 +4142,13 @@
         <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H8" s="6">
-        <v>43466</v>
+        <v>43334</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
@@ -4157,34 +4157,34 @@
         <v>2</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>449</v>
+        <v>105</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>115</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>85</v>
@@ -4205,58 +4205,58 @@
         <v>101</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>451</v>
+        <v>392</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>452</v>
+        <v>143</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="AJ8" s="6">
-        <v>31085</v>
+        <v>26348</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="AO8" s="2">
-        <v>8121572844</v>
+        <v>81316265159</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AR8" s="6">
-        <v>31647</v>
+        <v>33198</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>75</v>
@@ -4265,31 +4265,31 @@
         <v>76</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="AW8" s="2">
-        <v>81315988160</v>
+        <v>87882247912</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AY8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="BD8" s="4" t="s">
         <v>89</v>
@@ -4298,27 +4298,27 @@
         <v>89</v>
       </c>
       <c r="BF8" s="2">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="BH8" s="6">
-        <v>45615.352465277778</v>
+        <v>45615.312175925923</v>
       </c>
       <c r="BI8" s="2">
-        <v>202502008</v>
+        <v>202502009</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>388</v>
+        <v>611</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>389</v>
+        <v>612</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>104</v>
@@ -4330,10 +4330,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
-        <v>43334</v>
+        <v>43365</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -4345,16 +4345,16 @@
         <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>390</v>
+        <v>589</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
@@ -4363,13 +4363,13 @@
         <v>105</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>391</v>
+        <v>590</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>85</v>
@@ -4390,91 +4390,91 @@
         <v>101</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>393</v>
+        <v>614</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AJ9" s="6">
-        <v>26348</v>
+        <v>31807</v>
       </c>
       <c r="AK9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="AM9" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>81316265159</v>
+        <v>616</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>613</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>396</v>
+        <v>615</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AR9" s="6">
-        <v>33198</v>
+        <v>32365</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>397</v>
+        <v>616</v>
       </c>
       <c r="AW9" s="2">
-        <v>87882247912</v>
+        <v>81294751987</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AY9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>399</v>
+        <v>248</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="BC9" s="3" t="s">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="BD9" s="4" t="s">
         <v>89</v>
@@ -4483,16 +4483,16 @@
         <v>89</v>
       </c>
       <c r="BF9" s="2">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="BH9" s="6">
-        <v>45615.312175925923</v>
+        <v>45614.425567129627</v>
       </c>
       <c r="BI9" s="2">
-        <v>202502009</v>
+        <v>202502036</v>
       </c>
     </row>
     <row r="10" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
@@ -5235,15 +5235,15 @@
         <v>202502013</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>403</v>
+        <v>605</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>104</v>
@@ -5255,16 +5255,16 @@
         <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="H14" s="6">
-        <v>43292</v>
+        <v>43614</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>101</v>
@@ -5276,112 +5276,112 @@
         <v>100</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>404</v>
+      <c r="Q14" s="2">
+        <v>30</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="S14" s="2">
-        <v>15</v>
+        <v>358</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>120</v>
+        <v>359</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>406</v>
+        <v>100</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>2023</v>
+        <v>100</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>409</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AF14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>411</v>
+        <v>606</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>63</v>
+        <v>608</v>
       </c>
       <c r="AJ14" s="6">
-        <v>33688</v>
+        <v>30936</v>
       </c>
       <c r="AK14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>96</v>
+        <v>610</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="AO14" s="2">
-        <v>81286007072</v>
+        <v>85218843520</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>412</v>
+        <v>607</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>233</v>
+        <v>609</v>
       </c>
       <c r="AR14" s="6">
-        <v>33015</v>
+        <v>31060</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AU14" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="AW14" s="2">
-        <v>81286007073</v>
+        <v>81213701119</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>97</v>
@@ -5390,16 +5390,16 @@
         <v>80</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="BD14" s="4" t="s">
         <v>89</v>
@@ -5408,16 +5408,16 @@
         <v>89</v>
       </c>
       <c r="BF14" s="2">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="BG14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH14" s="6">
-        <v>45615.331053240741</v>
+        <v>177</v>
+      </c>
+      <c r="BH14" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="BI14" s="2">
-        <v>202502014</v>
+        <v>202502007</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
@@ -5425,10 +5425,10 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>104</v>
@@ -5440,94 +5440,94 @@
         <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="H15" s="6">
-        <v>43137</v>
+        <v>43292</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>334</v>
+        <v>100</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>120</v>
+        <v>405</v>
+      </c>
+      <c r="S15" s="2">
+        <v>15</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>120</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>100</v>
+        <v>406</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>100</v>
+        <v>408</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>2023</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="AB15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AJ15" s="6">
-        <v>29939</v>
+        <v>33688</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>75</v>
@@ -5542,16 +5542,16 @@
         <v>63</v>
       </c>
       <c r="AO15" s="2">
-        <v>8113211677</v>
+        <v>81286007072</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="AR15" s="6">
-        <v>30928</v>
+        <v>33015</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>75</v>
@@ -5560,13 +5560,13 @@
         <v>76</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AV15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AW15" s="2">
-        <v>85813353888</v>
+        <v>81286007073</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>97</v>
@@ -5575,16 +5575,16 @@
         <v>80</v>
       </c>
       <c r="AZ15" s="3" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="BA15" s="3" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="BB15" s="3" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="BC15" s="3" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="BD15" s="4" t="s">
         <v>89</v>
@@ -5593,16 +5593,16 @@
         <v>89</v>
       </c>
       <c r="BF15" s="2">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="BG15" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="BH15" s="6">
-        <v>45615.074548611112</v>
+        <v>45615.331053240741</v>
       </c>
       <c r="BI15" s="2">
-        <v>202502015</v>
+        <v>202502014</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
@@ -5610,10 +5610,10 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>104</v>
@@ -5625,46 +5625,46 @@
         <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="H16" s="6">
-        <v>43246</v>
+        <v>43137</v>
       </c>
       <c r="I16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>100</v>
+        <v>334</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>272</v>
+        <v>70</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
-      <c r="Q16" s="2">
-        <v>30</v>
+      <c r="Q16" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>274</v>
+        <v>120</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>85</v>
@@ -5685,7 +5685,7 @@
         <v>101</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>71</v>
@@ -5694,10 +5694,10 @@
         <v>95</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="AF16" s="2" t="s">
         <v>101</v>
@@ -5706,13 +5706,13 @@
         <v>101</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="6">
-        <v>27640</v>
+        <v>29939</v>
       </c>
       <c r="AK16" s="2" t="s">
         <v>75</v>
@@ -5721,37 +5721,37 @@
         <v>99</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>279</v>
+        <v>96</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="AO16" s="2">
-        <v>82110683102</v>
+        <v>8113211677</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AR16" s="6">
-        <v>29280</v>
+        <v>30928</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AU16" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="AW16" s="2">
-        <v>81213037759</v>
+        <v>85813353888</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>97</v>
@@ -5760,16 +5760,16 @@
         <v>80</v>
       </c>
       <c r="AZ16" s="3" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="BA16" s="3" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="BD16" s="4" t="s">
         <v>89</v>
@@ -5778,27 +5778,27 @@
         <v>89</v>
       </c>
       <c r="BF16" s="2">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="BG16" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="BH16" s="6">
-        <v>45614.55736111111</v>
+        <v>45615.074548611112</v>
       </c>
       <c r="BI16" s="2">
-        <v>202502016</v>
+        <v>202502015</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>462</v>
+        <v>270</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>463</v>
+        <v>271</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>104</v>
@@ -5810,16 +5810,16 @@
         <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="H17" s="6">
-        <v>43091</v>
+        <v>43246</v>
       </c>
       <c r="I17" s="2">
         <v>2</v>
       </c>
       <c r="J17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>101</v>
@@ -5831,25 +5831,25 @@
         <v>100</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>119</v>
+      <c r="Q17" s="2">
+        <v>30</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>464</v>
+        <v>273</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>465</v>
+        <v>275</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>85</v>
@@ -5879,82 +5879,82 @@
         <v>95</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>466</v>
+        <v>276</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>467</v>
+        <v>277</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="AJ17" s="6">
-        <v>33077</v>
+        <v>27640</v>
       </c>
       <c r="AK17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>468</v>
+        <v>280</v>
       </c>
       <c r="AO17" s="2">
-        <v>85692729707</v>
+        <v>82110683102</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>469</v>
+        <v>281</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="AR17" s="6">
-        <v>33132</v>
+        <v>29280</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>470</v>
+        <v>103</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>471</v>
+        <v>280</v>
       </c>
       <c r="AW17" s="2">
-        <v>8561430198</v>
+        <v>81213037759</v>
       </c>
       <c r="AX17" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AY17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>472</v>
+        <v>282</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>473</v>
+        <v>283</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>474</v>
+        <v>284</v>
       </c>
       <c r="BC17" s="3" t="s">
-        <v>475</v>
+        <v>285</v>
       </c>
       <c r="BD17" s="4" t="s">
         <v>89</v>
@@ -5963,16 +5963,16 @@
         <v>89</v>
       </c>
       <c r="BF17" s="2">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="BH17" s="6">
-        <v>45615.405023148145</v>
+        <v>45614.55736111111</v>
       </c>
       <c r="BI17" s="2">
-        <v>202502017</v>
+        <v>202502016</v>
       </c>
     </row>
     <row r="18" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
@@ -5980,10 +5980,10 @@
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>314</v>
+        <v>462</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>104</v>
@@ -5995,46 +5995,46 @@
         <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H18" s="6">
-        <v>43227</v>
+        <v>43091</v>
       </c>
       <c r="I18" s="2">
         <v>2</v>
       </c>
       <c r="J18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>317</v>
+        <v>119</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>318</v>
+        <v>464</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>85</v>
@@ -6055,7 +6055,7 @@
         <v>101</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>71</v>
@@ -6064,49 +6064,49 @@
         <v>95</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>319</v>
+        <v>466</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>320</v>
+        <v>467</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AJ18" s="6">
-        <v>32731</v>
+        <v>33077</v>
       </c>
       <c r="AK18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AM18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="AO18" s="2">
-        <v>81510708767</v>
+        <v>85692729707</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>322</v>
+        <v>469</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AR18" s="6">
-        <v>32622</v>
+        <v>33132</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>75</v>
@@ -6115,13 +6115,13 @@
         <v>76</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>114</v>
+        <v>470</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="AW18" s="2">
-        <v>81911617167</v>
+        <v>8561430198</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>79</v>
@@ -6130,16 +6130,16 @@
         <v>80</v>
       </c>
       <c r="AZ18" s="3" t="s">
-        <v>323</v>
+        <v>472</v>
       </c>
       <c r="BA18" s="3" t="s">
-        <v>324</v>
+        <v>473</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>326</v>
+        <v>475</v>
       </c>
       <c r="BD18" s="4" t="s">
         <v>89</v>
@@ -6148,16 +6148,16 @@
         <v>89</v>
       </c>
       <c r="BF18" s="2">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="BG18" s="2" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="BH18" s="6">
-        <v>45614.646296296298</v>
+        <v>45615.405023148145</v>
       </c>
       <c r="BI18" s="2">
-        <v>202502018</v>
+        <v>202502017</v>
       </c>
     </row>
     <row r="19" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
@@ -6165,10 +6165,10 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>554</v>
+        <v>314</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>555</v>
+        <v>315</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>104</v>
@@ -6180,79 +6180,79 @@
         <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H19" s="6">
-        <v>43237</v>
+        <v>43227</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>30</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="AA19" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="AB19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>560</v>
+        <v>319</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>101</v>
@@ -6261,13 +6261,13 @@
         <v>101</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>561</v>
+        <v>320</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="AJ19" s="6">
-        <v>34041</v>
+        <v>32731</v>
       </c>
       <c r="AK19" s="2" t="s">
         <v>75</v>
@@ -6279,19 +6279,19 @@
         <v>78</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>563</v>
+        <v>321</v>
       </c>
       <c r="AO19" s="2">
-        <v>85664533254</v>
+        <v>81510708767</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>564</v>
+        <v>322</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AR19" s="6">
-        <v>33485</v>
+        <v>32622</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>75</v>
@@ -6300,31 +6300,31 @@
         <v>76</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="AW19" s="2">
-        <v>81386880082</v>
+        <v>81911617167</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AY19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ19" s="3" t="s">
-        <v>565</v>
+        <v>323</v>
       </c>
       <c r="BA19" s="3" t="s">
-        <v>566</v>
+        <v>324</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>567</v>
+        <v>325</v>
       </c>
       <c r="BC19" s="3" t="s">
-        <v>568</v>
+        <v>326</v>
       </c>
       <c r="BD19" s="4" t="s">
         <v>89</v>
@@ -6339,10 +6339,10 @@
         <v>251</v>
       </c>
       <c r="BH19" s="6">
-        <v>45616.283437500002</v>
+        <v>45614.646296296298</v>
       </c>
       <c r="BI19" s="2">
-        <v>202502019</v>
+        <v>202502018</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
@@ -6350,10 +6350,10 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>384</v>
+        <v>554</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>385</v>
+        <v>555</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>104</v>
@@ -6365,67 +6365,67 @@
         <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H20" s="6">
-        <v>43281</v>
+        <v>43237</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>371</v>
+        <v>100</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>105</v>
+      <c r="Q20" s="2">
+        <v>30</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>100</v>
+        <v>556</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>100</v>
+        <v>557</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>100</v>
+        <v>558</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>100</v>
+        <v>559</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AB20" s="2" t="s">
         <v>71</v>
@@ -6434,10 +6434,10 @@
         <v>93</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="AF20" s="2" t="s">
         <v>101</v>
@@ -6446,13 +6446,13 @@
         <v>101</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>181</v>
+        <v>561</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>182</v>
+        <v>562</v>
       </c>
       <c r="AJ20" s="6">
-        <v>31160</v>
+        <v>34041</v>
       </c>
       <c r="AK20" s="2" t="s">
         <v>75</v>
@@ -6461,55 +6461,55 @@
         <v>76</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>183</v>
+        <v>563</v>
       </c>
       <c r="AO20" s="2">
-        <v>85210629337</v>
+        <v>85664533254</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>184</v>
+        <v>564</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="AR20" s="6">
-        <v>36385</v>
+        <v>33485</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT20" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="AW20" s="2">
-        <v>81911970536</v>
+        <v>81386880082</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="AY20" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>186</v>
+        <v>565</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>187</v>
+        <v>566</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>188</v>
+        <v>567</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>189</v>
+        <v>568</v>
       </c>
       <c r="BD20" s="4" t="s">
         <v>89</v>
@@ -6518,16 +6518,16 @@
         <v>89</v>
       </c>
       <c r="BF20" s="2">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="BG20" s="2" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="BH20" s="6">
-        <v>45614.164918981478</v>
+        <v>45616.283437500002</v>
       </c>
       <c r="BI20" s="2">
-        <v>202502020</v>
+        <v>202502019</v>
       </c>
     </row>
     <row r="21" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
@@ -6535,10 +6535,10 @@
         <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>507</v>
+        <v>384</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>508</v>
+        <v>385</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>104</v>
@@ -6550,13 +6550,13 @@
         <v>62</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H21" s="6">
-        <v>43381</v>
+        <v>43281</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2">
         <v>2</v>
@@ -6565,10 +6565,10 @@
         <v>64</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>509</v>
+        <v>386</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>66</v>
@@ -6579,17 +6579,17 @@
       <c r="P21" s="2">
         <v>1</v>
       </c>
-      <c r="Q21" s="2">
-        <v>30</v>
+      <c r="Q21" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>191</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>106</v>
+        <v>387</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>85</v>
@@ -6610,34 +6610,34 @@
         <v>101</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AB21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="AJ21" s="6">
-        <v>33305</v>
+        <v>31160</v>
       </c>
       <c r="AK21" s="2" t="s">
         <v>75</v>
@@ -6646,22 +6646,22 @@
         <v>76</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AO21" s="2">
-        <v>81291011156</v>
+        <v>85210629337</v>
       </c>
       <c r="AP21" s="2" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AR21" s="6">
-        <v>33195</v>
+        <v>36385</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>75</v>
@@ -6673,28 +6673,28 @@
         <v>114</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="AW21" s="2">
-        <v>81291011156</v>
+        <v>81911970536</v>
       </c>
       <c r="AX21" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AY21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="BD21" s="4" t="s">
         <v>89</v>
@@ -6703,16 +6703,16 @@
         <v>89</v>
       </c>
       <c r="BF21" s="2">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="BH21" s="6">
-        <v>45614.14025462963</v>
+        <v>45614.164918981478</v>
       </c>
       <c r="BI21" s="2">
-        <v>202502022</v>
+        <v>202502020</v>
       </c>
     </row>
     <row r="22" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
@@ -6720,10 +6720,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>104</v>
@@ -6732,16 +6732,16 @@
         <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H22" s="6">
-        <v>43402</v>
+        <v>43381</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
@@ -6750,31 +6750,31 @@
         <v>64</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>523</v>
+        <v>60</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P22" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>525</v>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>30</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>526</v>
+        <v>191</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>527</v>
+        <v>106</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>85</v>
@@ -6801,28 +6801,28 @@
         <v>71</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>569</v>
+        <v>122</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>570</v>
+        <v>124</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AJ22" s="6">
-        <v>30919</v>
+        <v>33305</v>
       </c>
       <c r="AK22" s="2" t="s">
         <v>75</v>
@@ -6831,37 +6831,37 @@
         <v>76</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="AO22" s="2">
-        <v>8568844788</v>
+        <v>81291011156</v>
       </c>
       <c r="AP22" s="2" t="s">
-        <v>573</v>
+        <v>126</v>
       </c>
       <c r="AQ22" s="2" t="s">
         <v>82</v>
       </c>
       <c r="AR22" s="6">
-        <v>32421</v>
+        <v>33195</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AV22" s="2" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="AW22" s="2">
-        <v>8568844788</v>
+        <v>81291011156</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>97</v>
@@ -6870,16 +6870,16 @@
         <v>80</v>
       </c>
       <c r="AZ22" s="3" t="s">
-        <v>574</v>
+        <v>127</v>
       </c>
       <c r="BA22" s="3" t="s">
-        <v>575</v>
+        <v>128</v>
       </c>
       <c r="BB22" s="3" t="s">
-        <v>576</v>
+        <v>129</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>577</v>
+        <v>130</v>
       </c>
       <c r="BD22" s="4" t="s">
         <v>89</v>
@@ -6888,30 +6888,30 @@
         <v>89</v>
       </c>
       <c r="BF22" s="2">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="BG22" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="BH22" s="6">
-        <v>45617.425439814811</v>
+        <v>45614.14025462963</v>
       </c>
       <c r="BI22" s="2">
-        <v>202502023</v>
+        <v>202502022</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
+        <v>522</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>61</v>
@@ -6923,43 +6923,43 @@
         <v>82</v>
       </c>
       <c r="H23" s="6">
-        <v>43566</v>
+        <v>43402</v>
       </c>
       <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
         <v>2</v>
       </c>
-      <c r="J23" s="2">
-        <v>3</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>100</v>
+        <v>523</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>100</v>
+        <v>524</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>131</v>
+        <v>525</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>131</v>
+        <v>526</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>106</v>
+        <v>527</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>85</v>
@@ -6980,19 +6980,19 @@
         <v>101</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="AB23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>375</v>
+        <v>569</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>101</v>
@@ -7001,70 +7001,70 @@
         <v>101</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>376</v>
+        <v>570</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>377</v>
+        <v>571</v>
       </c>
       <c r="AJ23" s="6">
-        <v>28329</v>
+        <v>30919</v>
       </c>
       <c r="AK23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>63</v>
+        <v>572</v>
       </c>
       <c r="AO23" s="2">
-        <v>81295960115</v>
+        <v>8568844788</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>378</v>
+        <v>573</v>
       </c>
       <c r="AQ23" s="2" t="s">
         <v>82</v>
       </c>
       <c r="AR23" s="6">
-        <v>29746</v>
+        <v>32421</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT23" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>379</v>
+        <v>572</v>
       </c>
       <c r="AW23" s="2">
-        <v>8157170221</v>
+        <v>8568844788</v>
       </c>
       <c r="AX23" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AY23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ23" s="3" t="s">
-        <v>380</v>
+        <v>574</v>
       </c>
       <c r="BA23" s="3" t="s">
-        <v>381</v>
+        <v>575</v>
       </c>
       <c r="BB23" s="3" t="s">
-        <v>382</v>
+        <v>576</v>
       </c>
       <c r="BC23" s="3" t="s">
-        <v>383</v>
+        <v>577</v>
       </c>
       <c r="BD23" s="4" t="s">
         <v>89</v>
@@ -7073,16 +7073,16 @@
         <v>89</v>
       </c>
       <c r="BF23" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="BG23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BH23" s="6">
-        <v>45615.280127314814</v>
+        <v>45617.425439814811</v>
       </c>
       <c r="BI23" s="2">
-        <v>202502024</v>
+        <v>202502023</v>
       </c>
     </row>
     <row r="24" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
@@ -7090,10 +7090,10 @@
         <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>368</v>
+        <v>538</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>369</v>
+        <v>539</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>104</v>
@@ -7105,46 +7105,46 @@
         <v>90</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="H24" s="6">
-        <v>43152</v>
+        <v>43566</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>371</v>
+        <v>100</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>372</v>
+        <v>100</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P24" s="2">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>510</v>
+        <v>167</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>85</v>
@@ -7165,19 +7165,19 @@
         <v>101</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="AB24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>511</v>
+        <v>375</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>101</v>
@@ -7186,70 +7186,70 @@
         <v>101</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AJ24" s="6">
-        <v>31614</v>
+        <v>28329</v>
       </c>
       <c r="AK24" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>513</v>
+        <v>63</v>
       </c>
       <c r="AO24" s="2">
-        <v>8175453618</v>
+        <v>81295960115</v>
       </c>
       <c r="AP24" s="2" t="s">
-        <v>514</v>
+        <v>378</v>
       </c>
       <c r="AQ24" s="2" t="s">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="AR24" s="6">
-        <v>33002</v>
+        <v>29746</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT24" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>516</v>
+        <v>379</v>
       </c>
       <c r="AW24" s="2">
-        <v>81380016099</v>
+        <v>8157170221</v>
       </c>
       <c r="AX24" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AY24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ24" s="3" t="s">
-        <v>517</v>
+        <v>380</v>
       </c>
       <c r="BA24" s="3" t="s">
-        <v>518</v>
+        <v>381</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>519</v>
+        <v>382</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>520</v>
+        <v>383</v>
       </c>
       <c r="BD24" s="4" t="s">
         <v>89</v>
@@ -7258,27 +7258,27 @@
         <v>89</v>
       </c>
       <c r="BF24" s="2">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="BG24" s="2" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="BH24" s="6">
-        <v>45615.608287037037</v>
+        <v>45615.280127314814</v>
       </c>
       <c r="BI24" s="2">
-        <v>202502025</v>
+        <v>202502024</v>
       </c>
     </row>
-    <row r="25" spans="1:61" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>104</v>
@@ -7290,46 +7290,46 @@
         <v>90</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="H25" s="6">
-        <v>43451</v>
+        <v>43152</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>100</v>
+        <v>372</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>435</v>
+        <v>66</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>105</v>
+        <v>373</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="S25" s="2">
-        <v>12</v>
+        <v>374</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>85</v>
@@ -7350,19 +7350,19 @@
         <v>101</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="AC25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="AF25" s="2" t="s">
         <v>101</v>
@@ -7371,13 +7371,13 @@
         <v>101</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AJ25" s="6">
-        <v>33530</v>
+        <v>31614</v>
       </c>
       <c r="AK25" s="2" t="s">
         <v>75</v>
@@ -7386,22 +7386,22 @@
         <v>76</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="AO25" s="2">
-        <v>85322512752</v>
+        <v>8175453618</v>
       </c>
       <c r="AP25" s="2" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="AQ25" s="2" t="s">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="AR25" s="6">
-        <v>34117</v>
+        <v>33002</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>75</v>
@@ -7410,13 +7410,13 @@
         <v>76</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="AW25" s="2">
-        <v>82118564761</v>
+        <v>81380016099</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>97</v>
@@ -7425,16 +7425,16 @@
         <v>80</v>
       </c>
       <c r="AZ25" s="3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="BA25" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="BB25" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="BD25" s="4" t="s">
         <v>89</v>
@@ -7443,27 +7443,27 @@
         <v>89</v>
       </c>
       <c r="BF25" s="2">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="BG25" s="2" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="BH25" s="6">
-        <v>45615.617083333331</v>
+        <v>45615.608287037037</v>
       </c>
       <c r="BI25" s="2">
-        <v>202502026</v>
+        <v>202502025</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>104</v>
@@ -7478,13 +7478,13 @@
         <v>63</v>
       </c>
       <c r="H26" s="6">
-        <v>39790</v>
+        <v>43451</v>
       </c>
       <c r="I26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>101</v>
@@ -7496,10 +7496,10 @@
         <v>100</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>66</v>
+        <v>435</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
@@ -7508,13 +7508,13 @@
         <v>105</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T26" s="2">
-        <v>2</v>
+        <v>436</v>
+      </c>
+      <c r="S26" s="2">
+        <v>12</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>85</v>
@@ -7535,7 +7535,7 @@
         <v>101</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB26" s="2" t="s">
         <v>134</v>
@@ -7547,7 +7547,7 @@
         <v>72</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="AF26" s="2" t="s">
         <v>101</v>
@@ -7556,13 +7556,13 @@
         <v>101</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="AJ26" s="6">
-        <v>33544</v>
+        <v>33530</v>
       </c>
       <c r="AK26" s="2" t="s">
         <v>75</v>
@@ -7571,22 +7571,22 @@
         <v>76</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>137</v>
+        <v>532</v>
       </c>
       <c r="AO26" s="2">
-        <v>8571576434</v>
+        <v>85322512752</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="AQ26" s="2" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AR26" s="6">
-        <v>32880</v>
+        <v>34117</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>75</v>
@@ -7595,13 +7595,13 @@
         <v>76</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>137</v>
+        <v>532</v>
       </c>
       <c r="AW26" s="2">
-        <v>85292559115</v>
+        <v>82118564761</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>97</v>
@@ -7610,45 +7610,45 @@
         <v>80</v>
       </c>
       <c r="AZ26" s="3" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="BA26" s="3" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="BB26" s="3" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="BC26" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="BD26" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="BE26" s="3" t="s">
-        <v>586</v>
+        <v>537</v>
+      </c>
+      <c r="BD26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE26" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="BF26" s="2">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="BG26" s="2" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="BH26" s="6">
-        <v>45618.103831018518</v>
+        <v>45615.617083333331</v>
       </c>
       <c r="BI26" s="2">
-        <v>202502027</v>
+        <v>202502026</v>
       </c>
     </row>
-    <row r="27" spans="1:61" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>214</v>
+        <v>477</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>104</v>
@@ -7657,49 +7657,49 @@
         <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H27" s="6">
-        <v>43133</v>
+        <v>43308</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>371</v>
+        <v>175</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>542</v>
+        <v>241</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>193</v>
+        <v>437</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>85</v>
@@ -7720,10 +7720,10 @@
         <v>101</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>67</v>
@@ -7732,108 +7732,108 @@
         <v>72</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>593</v>
+        <v>438</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>594</v>
+        <v>439</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AJ27" s="6">
-        <v>29539</v>
+        <v>34813</v>
       </c>
       <c r="AK27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>595</v>
+        <v>440</v>
       </c>
       <c r="AO27" s="2">
-        <v>81213980892</v>
+        <v>85717906099</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>596</v>
+        <v>441</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="AR27" s="6">
-        <v>30982</v>
+        <v>34870</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>597</v>
+        <v>440</v>
       </c>
       <c r="AW27" s="2">
-        <v>81213980892</v>
+        <v>85741573599</v>
       </c>
       <c r="AX27" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AY27" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ27" s="3" t="s">
-        <v>598</v>
+        <v>442</v>
       </c>
       <c r="BA27" s="3" t="s">
-        <v>599</v>
+        <v>443</v>
       </c>
       <c r="BB27" s="3" t="s">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="BC27" s="3" t="s">
-        <v>601</v>
+        <v>445</v>
       </c>
       <c r="BD27" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="BE27" s="3" t="s">
-        <v>592</v>
+        <v>446</v>
+      </c>
+      <c r="BE27" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="BF27" s="2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="BH27" s="6">
-        <v>45618.103831018518</v>
+        <v>45615.341111111113</v>
       </c>
       <c r="BI27" s="2">
-        <v>202502028</v>
+        <v>202502034</v>
       </c>
     </row>
-    <row r="28" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>170</v>
+        <v>587</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>171</v>
+        <v>588</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>104</v>
@@ -7842,49 +7842,49 @@
         <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H28" s="6">
-        <v>43563</v>
+        <v>43476</v>
       </c>
       <c r="I28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>172</v>
+        <v>589</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
       </c>
-      <c r="Q28" s="2">
-        <v>30</v>
+      <c r="Q28" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>173</v>
+        <v>590</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>85</v>
@@ -7905,19 +7905,19 @@
         <v>101</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AD28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="AF28" s="2" t="s">
         <v>101</v>
@@ -7926,70 +7926,70 @@
         <v>101</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="AJ28" s="6">
-        <v>32421</v>
+        <v>32836</v>
       </c>
       <c r="AK28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AM28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="AO28" s="2">
-        <v>81234048189</v>
+        <v>81383016462</v>
       </c>
       <c r="AP28" s="2" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="AQ28" s="2" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="AR28" s="6">
-        <v>33391</v>
+        <v>33505</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AU28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="AV28" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="AW28" s="2">
-        <v>81234048189</v>
+        <v>81294751987</v>
       </c>
       <c r="AX28" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AY28" s="2" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AZ28" s="3" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="BA28" s="3" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="BB28" s="3" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="BC28" s="3" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="BD28" s="4" t="s">
         <v>89</v>
@@ -7998,16 +7998,16 @@
         <v>89</v>
       </c>
       <c r="BF28" s="2">
-        <v>50000000</v>
+        <v>3000000</v>
       </c>
       <c r="BG28" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="BH28" s="6">
-        <v>45614.147858796299</v>
+        <v>45614.425567129627</v>
       </c>
       <c r="BI28" s="2">
-        <v>202502029</v>
+        <v>202502035</v>
       </c>
     </row>
     <row r="29" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
@@ -8015,10 +8015,10 @@
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>104</v>
@@ -8030,13 +8030,13 @@
         <v>90</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H29" s="6">
-        <v>43203</v>
+        <v>39790</v>
       </c>
       <c r="I29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="2">
         <v>3</v>
@@ -8054,22 +8054,22 @@
         <v>66</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
       </c>
-      <c r="Q29" s="2">
-        <v>30</v>
+      <c r="Q29" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>116</v>
+      <c r="T29" s="2">
+        <v>2</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>85</v>
@@ -8090,58 +8090,58 @@
         <v>101</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>346</v>
+        <v>578</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>348</v>
+        <v>579</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="AJ29" s="6">
-        <v>27278</v>
+        <v>33544</v>
       </c>
       <c r="AK29" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="AO29" s="2">
-        <v>81218112888</v>
+        <v>8571576434</v>
       </c>
       <c r="AP29" s="2" t="s">
-        <v>351</v>
+        <v>580</v>
       </c>
       <c r="AQ29" s="2" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="AR29" s="6">
-        <v>29819</v>
+        <v>32880</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>75</v>
@@ -8150,63 +8150,63 @@
         <v>76</v>
       </c>
       <c r="AU29" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="AV29" s="2" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="AW29" s="2">
-        <v>81210001882</v>
+        <v>85292559115</v>
       </c>
       <c r="AX29" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AY29" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ29" s="3" t="s">
-        <v>352</v>
+        <v>581</v>
       </c>
       <c r="BA29" s="3" t="s">
-        <v>353</v>
+        <v>582</v>
       </c>
       <c r="BB29" s="3" t="s">
-        <v>354</v>
+        <v>583</v>
       </c>
       <c r="BC29" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="BD29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE29" s="4" t="s">
-        <v>89</v>
+        <v>584</v>
+      </c>
+      <c r="BD29" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="BE29" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="BF29" s="2">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="BG29" s="2" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="BH29" s="6">
-        <v>45615.10396990741</v>
+        <v>45618.103831018518</v>
       </c>
       <c r="BI29" s="2">
-        <v>202502030</v>
+        <v>202502027</v>
       </c>
     </row>
-    <row r="30" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>327</v>
+        <v>540</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D30" s="2">
-        <v>202201024</v>
+        <v>214</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>61</v>
@@ -8215,10 +8215,10 @@
         <v>90</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="H30" s="6">
-        <v>43353</v>
+        <v>43133</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -8227,34 +8227,34 @@
         <v>2</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>329</v>
+        <v>542</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2">
         <v>30</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>543</v>
+        <v>193</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>85</v>
@@ -8275,34 +8275,34 @@
         <v>101</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AD30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>545</v>
+        <v>242</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AJ30" s="6">
-        <v>32988</v>
+        <v>29539</v>
       </c>
       <c r="AK30" s="2" t="s">
         <v>75</v>
@@ -8311,84 +8311,84 @@
         <v>76</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="AO30" s="2">
-        <v>8571642772</v>
+        <v>81213980892</v>
       </c>
       <c r="AP30" s="2" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="AQ30" s="2" t="s">
-        <v>549</v>
+        <v>91</v>
       </c>
       <c r="AR30" s="6">
-        <v>33938</v>
+        <v>30982</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="AW30" s="2">
-        <v>8568008275</v>
+        <v>81213980892</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AY30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ30" s="3" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="BA30" s="3" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="BB30" s="3" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="BC30" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE30" s="4" t="s">
-        <v>89</v>
+        <v>601</v>
+      </c>
+      <c r="BD30" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="BE30" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="BF30" s="2">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="BG30" s="2" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="BH30" s="6">
-        <v>45616.069224537037</v>
+        <v>45618.103831018518</v>
       </c>
       <c r="BI30" s="2">
-        <v>202502031</v>
+        <v>202502028</v>
       </c>
     </row>
-    <row r="31" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>110</v>
+      <c r="B31" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>104</v>
@@ -8403,28 +8403,28 @@
         <v>63</v>
       </c>
       <c r="H31" s="6">
-        <v>43469</v>
+        <v>43563</v>
       </c>
       <c r="I31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
@@ -8433,13 +8433,13 @@
         <v>30</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>85</v>
@@ -8466,85 +8466,85 @@
         <v>71</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AJ31" s="6">
-        <v>30512</v>
+        <v>32421</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="AO31" s="2">
-        <v>89610085997</v>
+        <v>81234048189</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="AQ31" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="AR31" s="6">
-        <v>31184</v>
+        <v>33391</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT31" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AV31" s="2" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="AW31" s="2">
-        <v>8170854555</v>
+        <v>81234048189</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AY31" s="2" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AZ31" s="3" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="BA31" s="3" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="BB31" s="3" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="BC31" s="3" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="BD31" s="4" t="s">
         <v>89</v>
@@ -8553,27 +8553,27 @@
         <v>89</v>
       </c>
       <c r="BF31" s="2">
-        <v>2000000</v>
+        <v>50000000</v>
       </c>
       <c r="BG31" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="BH31" s="6">
-        <v>45614.306180555555</v>
+        <v>45614.147858796299</v>
       </c>
       <c r="BI31" s="2">
-        <v>202502032</v>
+        <v>202502029</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>104</v>
@@ -8582,16 +8582,16 @@
         <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="H32" s="6">
-        <v>43108</v>
+        <v>43203</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="2">
         <v>3</v>
@@ -8614,17 +8614,17 @@
       <c r="P32" s="2">
         <v>1</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>105</v>
+      <c r="Q32" s="2">
+        <v>30</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>85</v>
@@ -8645,91 +8645,91 @@
         <v>101</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AB32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>146</v>
+        <v>346</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>147</v>
+        <v>348</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="AJ32" s="6">
-        <v>33495</v>
+        <v>27278</v>
       </c>
       <c r="AK32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="AO32" s="2">
-        <v>82231313233</v>
+        <v>81218112888</v>
       </c>
       <c r="AP32" s="2" t="s">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="AQ32" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="AR32" s="6">
-        <v>35212</v>
+        <v>29819</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT32" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="AV32" s="2" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="AW32" s="2">
-        <v>89526843596</v>
+        <v>81210001882</v>
       </c>
       <c r="AX32" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AY32" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ32" s="3" t="s">
-        <v>150</v>
+        <v>352</v>
       </c>
       <c r="BA32" s="3" t="s">
-        <v>151</v>
+        <v>353</v>
       </c>
       <c r="BB32" s="3" t="s">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="BC32" s="3" t="s">
-        <v>153</v>
+        <v>355</v>
       </c>
       <c r="BD32" s="4" t="s">
         <v>89</v>
@@ -8738,16 +8738,16 @@
         <v>89</v>
       </c>
       <c r="BF32" s="2">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="BG32" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="BH32" s="6">
-        <v>45614.145856481482</v>
+        <v>45615.10396990741</v>
       </c>
       <c r="BI32" s="2">
-        <v>202502033</v>
+        <v>202502030</v>
       </c>
     </row>
     <row r="33" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
@@ -8755,10 +8755,10 @@
         <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>476</v>
+        <v>327</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>477</v>
+        <v>328</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>104</v>
@@ -8767,31 +8767,31 @@
         <v>61</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="H33" s="6">
-        <v>43308</v>
+        <v>43353</v>
       </c>
       <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
         <v>2</v>
       </c>
-      <c r="J33" s="2">
-        <v>3</v>
-      </c>
       <c r="K33" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>478</v>
+        <v>100</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>95</v>
@@ -8799,17 +8799,17 @@
       <c r="P33" s="2">
         <v>1</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>105</v>
+      <c r="Q33" s="2">
+        <v>30</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>479</v>
+        <v>330</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>437</v>
+        <v>543</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>85</v>
@@ -8836,88 +8836,88 @@
         <v>134</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>438</v>
+        <v>544</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>101</v>
+        <v>545</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>439</v>
+        <v>546</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AJ33" s="6">
-        <v>34813</v>
+        <v>32988</v>
       </c>
       <c r="AK33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AM33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
       <c r="AO33" s="2">
-        <v>85717906099</v>
+        <v>8571642772</v>
       </c>
       <c r="AP33" s="2" t="s">
-        <v>441</v>
+        <v>548</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>63</v>
+        <v>549</v>
       </c>
       <c r="AR33" s="6">
-        <v>34870</v>
+        <v>33938</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT33" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AV33" s="2" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
       <c r="AW33" s="2">
-        <v>85741573599</v>
+        <v>8568008275</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AY33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ33" s="3" t="s">
-        <v>442</v>
+        <v>550</v>
       </c>
       <c r="BA33" s="3" t="s">
-        <v>443</v>
+        <v>551</v>
       </c>
       <c r="BB33" s="3" t="s">
-        <v>444</v>
+        <v>552</v>
       </c>
       <c r="BC33" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="BD33" s="3" t="s">
-        <v>446</v>
+        <v>553</v>
+      </c>
+      <c r="BD33" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="BE33" s="4" t="s">
         <v>89</v>
@@ -8929,21 +8929,21 @@
         <v>81</v>
       </c>
       <c r="BH33" s="6">
-        <v>45615.341111111113</v>
+        <v>45616.069224537037</v>
       </c>
       <c r="BI33" s="2">
-        <v>202502034</v>
+        <v>202502031</v>
       </c>
     </row>
     <row r="34" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>587</v>
+      <c r="B34" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>588</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>104</v>
@@ -8952,49 +8952,49 @@
         <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H34" s="6">
-        <v>43476</v>
+        <v>43469</v>
       </c>
       <c r="I34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2">
         <v>2</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>589</v>
+        <v>100</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="P34" s="2">
         <v>1</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>105</v>
+      <c r="Q34" s="2">
+        <v>30</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>590</v>
+        <v>112</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>85</v>
@@ -9015,58 +9015,58 @@
         <v>101</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="AJ34" s="6">
-        <v>32836</v>
+        <v>30512</v>
       </c>
       <c r="AK34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="AN34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AO34" s="2">
-        <v>81383016462</v>
+        <v>89610085997</v>
       </c>
       <c r="AP34" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AQ34" s="2" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AR34" s="6">
-        <v>33505</v>
+        <v>31184</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>75</v>
@@ -9075,31 +9075,31 @@
         <v>76</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AV34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AW34" s="2">
-        <v>81294751987</v>
+        <v>8170854555</v>
       </c>
       <c r="AX34" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AY34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ34" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="BA34" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="BB34" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="BC34" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BD34" s="4" t="s">
         <v>89</v>
@@ -9108,27 +9108,27 @@
         <v>89</v>
       </c>
       <c r="BF34" s="2">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="BG34" s="2" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BH34" s="6">
-        <v>45614.425567129627</v>
+        <v>45614.306180555555</v>
       </c>
       <c r="BI34" s="2">
-        <v>202502035</v>
+        <v>202502032</v>
       </c>
     </row>
-    <row r="35" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>611</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>612</v>
+        <v>300</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>104</v>
@@ -9137,34 +9137,34 @@
         <v>61</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="H35" s="6">
-        <v>43365</v>
+        <v>43108</v>
       </c>
       <c r="I35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>589</v>
+        <v>100</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="P35" s="2">
         <v>1</v>
@@ -9173,13 +9173,13 @@
         <v>105</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>590</v>
+        <v>302</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>85</v>
@@ -9200,19 +9200,19 @@
         <v>101</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AB35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="AD35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="AF35" s="2" t="s">
         <v>101</v>
@@ -9221,70 +9221,70 @@
         <v>101</v>
       </c>
       <c r="AH35" s="2" t="s">
-        <v>614</v>
+        <v>147</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AJ35" s="6">
-        <v>31807</v>
+        <v>33495</v>
       </c>
       <c r="AK35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AM35" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="AN35" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AO35" s="9" t="s">
-        <v>613</v>
+        <v>148</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>82231313233</v>
       </c>
       <c r="AP35" s="2" t="s">
-        <v>615</v>
+        <v>149</v>
       </c>
       <c r="AQ35" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AR35" s="6">
-        <v>32365</v>
+        <v>35212</v>
       </c>
       <c r="AS35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AT35" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="AV35" s="2" t="s">
-        <v>616</v>
+        <v>148</v>
       </c>
       <c r="AW35" s="2">
-        <v>81294751987</v>
+        <v>89526843596</v>
       </c>
       <c r="AX35" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AY35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AZ35" s="3" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="BA35" s="3" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="BB35" s="3" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="BC35" s="3" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="BD35" s="4" t="s">
         <v>89</v>
@@ -9293,39 +9293,39 @@
         <v>89</v>
       </c>
       <c r="BF35" s="2">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="BH35" s="6">
-        <v>45614.425567129627</v>
+        <v>45614.145856481482</v>
       </c>
       <c r="BI35" s="2">
-        <v>202502036</v>
+        <v>202502033</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BI36">
-    <sortCondition ref="BI1:BI36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BI35">
+    <sortCondition ref="B1:B35"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AZ21" r:id="rId1" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/f23b59bdff_akte M.sakha-compressed.pdf" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="BA21" r:id="rId2" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/1c5ee27261_Kartu keluarga.pdf" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="BB21" r:id="rId3" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/28db02b7b9_KTP Agus Pujianto.pdf" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="BC21" r:id="rId4" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/35a761acfa_KTP Nadia.pdf" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AZ32" r:id="rId5" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/76b16d3cb4_AKTE LAHIR SYADDAD IZEN R.pdf" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="BA32" r:id="rId6" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/0c4a84e728_kk.pdf" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="BB32" r:id="rId7" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/e7325aa5ee_KTP Dwi Puja Rahman.pdf" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="BC32" r:id="rId8" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/2a4b510e88_KTP Nur Alfiyah Murniyati_1.pdf" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AZ28" r:id="rId9" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/f309c23698_inbound1899815731841661839.pdf" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="BA28" r:id="rId10" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/5e874743ec_inbound3842338391274350444.pdf" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="BB28" r:id="rId11" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/ba06a01c2a_inbound5364700533647029652.pdf" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="BC28" r:id="rId12" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/fb53f8602f_inbound1698043974407433896.pdf" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AZ20" r:id="rId13" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/202020d928_muhammad izzan.pdf" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="BA20" r:id="rId14" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/0d052498b3_KK.pdf" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="BB20" r:id="rId15" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/0fd98275df_KTP bapak.pdf" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="BC20" r:id="rId16" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/17b5f44a87_KTP Ibu.pdf" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="AZ22" r:id="rId1" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/f23b59bdff_akte M.sakha-compressed.pdf" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BA22" r:id="rId2" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/1c5ee27261_Kartu keluarga.pdf" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="BB22" r:id="rId3" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/28db02b7b9_KTP Agus Pujianto.pdf" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="BC22" r:id="rId4" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/35a761acfa_KTP Nadia.pdf" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AZ35" r:id="rId5" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/76b16d3cb4_AKTE LAHIR SYADDAD IZEN R.pdf" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="BA35" r:id="rId6" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/0c4a84e728_kk.pdf" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="BB35" r:id="rId7" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/e7325aa5ee_KTP Dwi Puja Rahman.pdf" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="BC35" r:id="rId8" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/2a4b510e88_KTP Nur Alfiyah Murniyati_1.pdf" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AZ31" r:id="rId9" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/f309c23698_inbound1899815731841661839.pdf" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="BA31" r:id="rId10" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/5e874743ec_inbound3842338391274350444.pdf" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="BB31" r:id="rId11" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/ba06a01c2a_inbound5364700533647029652.pdf" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="BC31" r:id="rId12" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/fb53f8602f_inbound1698043974407433896.pdf" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AZ21" r:id="rId13" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/202020d928_muhammad izzan.pdf" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="BA21" r:id="rId14" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/0d052498b3_KK.pdf" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="BB21" r:id="rId15" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/0fd98275df_KTP bapak.pdf" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BC21" r:id="rId16" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/17b5f44a87_KTP Ibu.pdf" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="AZ12" r:id="rId17" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/d440a505f0_AKTE KELAHIRAN KHAULAH INARA.pdf" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
     <hyperlink ref="BA12" r:id="rId18" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/43045ec5f3_KARTU KELUARGA - FACHTURRIZKI RAMADHAN.pdf" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
     <hyperlink ref="BB12" r:id="rId19" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/1c24862b90_KTP - FACHTURRIZKI RAMADHAN.pdf" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
@@ -9334,18 +9334,18 @@
     <hyperlink ref="BA11" r:id="rId22" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/f2f0528c60_KK.pdf" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="BB11" r:id="rId23" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/bac18a72c0_Ktp abati.pdf" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="BC11" r:id="rId24" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/70c0b2c0b9_Ktp umi.pdf" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="AZ35" r:id="rId25" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/d11acd0d90_AKTE NAUSHA.pdf" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="BA35" r:id="rId26" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/8e41fd8874_KK6.pdf" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="BB35" r:id="rId27" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/1c348fe112_KTP AYAH.pdf" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="BC35" r:id="rId28" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/49895d1484_KTP IBUY.pdf" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="AZ9" r:id="rId25" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/d11acd0d90_AKTE NAUSHA.pdf" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="BA9" r:id="rId26" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/8e41fd8874_KK6.pdf" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="BB9" r:id="rId27" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/1c348fe112_KTP AYAH.pdf" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="BC9" r:id="rId28" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/49895d1484_KTP IBUY.pdf" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
     <hyperlink ref="AZ3" r:id="rId29" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/ea5c633f99_Akta Kelahiran Aghnia.pdf" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
     <hyperlink ref="BA3" r:id="rId30" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/6816e2142f_Kartu Keluarga Pradipta 2.pdf" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
     <hyperlink ref="BB3" r:id="rId31" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/54f9e4a570_KTP ADIP.pdf" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
     <hyperlink ref="BC3" r:id="rId32" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/de57f192b7_KTP Baru Amel.pdf" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="AZ16" r:id="rId33" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/db58519f4b_Akta lahir M. Azzam K.pdf" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="BA16" r:id="rId34" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/ca1b384b6c_Kartu Keluarga Selamet Daroini.pdf" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="BB16" r:id="rId35" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/f1e188bca6_KTP Selamet (Ayah M. Azzam).pdf" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="BC16" r:id="rId36" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/d05837d650_KTP Indriyani P (Ibu M Azzam).pdf" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="AZ17" r:id="rId33" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/db58519f4b_Akta lahir M. Azzam K.pdf" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="BA17" r:id="rId34" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/ca1b384b6c_Kartu Keluarga Selamet Daroini.pdf" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="BB17" r:id="rId35" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/f1e188bca6_KTP Selamet (Ayah M. Azzam).pdf" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="BC17" r:id="rId36" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/d05837d650_KTP Indriyani P (Ibu M Azzam).pdf" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
     <hyperlink ref="AZ13" r:id="rId37" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/3c42744283_akta lahir zeeya.pdf" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
     <hyperlink ref="BA13" r:id="rId38" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/4560a3b214_kartu keluarga MZJ.pdf" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
     <hyperlink ref="BB13" r:id="rId39" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/ea9e141cf1_IMG-20190516-WA0014(1).pdf" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
@@ -9354,51 +9354,51 @@
     <hyperlink ref="BA5" r:id="rId42" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/50ee0b8aa3_Kartu Keluarga.pdf" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
     <hyperlink ref="BB5" r:id="rId43" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/015cd9605b_KTP Sulyanto.pdf" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
     <hyperlink ref="BC5" r:id="rId44" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/043c3c7184_KTP Nunung Nursinah.pdf" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="AZ18" r:id="rId45" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/3ab518a9d9_Akta Lahir Taqi.pdf" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="BA18" r:id="rId46" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/2ef09b08a9_Surat KK.pdf" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="BB18" r:id="rId47" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/46bdf8af1a_KTP_Ayah.pdf" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="BC18" r:id="rId48" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/baeea099f9_KTP_Ibu.pdf" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="AZ15" r:id="rId49" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/d49487f4e4_new doc 2024-11-19 08.34.30.pdf" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="BA15" r:id="rId50" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/d26246e4f0_new doc 2024-11-19 08.36.12.pdf" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="BB15" r:id="rId51" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/cff6bb2410_new doc 2024-11-19 08.37.19.pdf" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="BC15" r:id="rId52" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/1be27e674d_new doc 2024-11-19 08.38.17.pdf" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="AZ29" r:id="rId53" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/b2177d5d39_1000191516.pdf" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="BA29" r:id="rId54" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/da57a46cd3_1000191321.pdf" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="BB29" r:id="rId55" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/e9aa80bc67_1000191542.pdf" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="BC29" r:id="rId56" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/33491483f6_1000191557 (1).pdf" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="AZ7" r:id="rId57" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/92ad90b487_5_6186166036379734050.pdf" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="BA7" r:id="rId58" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/b1a98e8fb9_KK Pak Anwar.pdf" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="BB7" r:id="rId59" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/798b8cea1c_5_6188314890122302338.pdf" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="BC7" r:id="rId60" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/73e8e52c10_5_6188314890122302339.pdf" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="AZ23" r:id="rId61" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/fc7eb3edd2_inbound4480207338214361210.pdf" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="BA23" r:id="rId62" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/74c38735ae_inbound1106177349400075023.pdf" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="BB23" r:id="rId63" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/019d830153_inbound1786110339143191261.pdf" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="BC23" r:id="rId64" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/0b78dcf958_inbound5086775266055316681.pdf" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="AZ9" r:id="rId65" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/fc806d5728_Fayza.pdf" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="BA9" r:id="rId66" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/9e76df9c64_Screenshot 2024-11-19 at 13.53.27.pdf" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="BB9" r:id="rId67" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/b7e80089b9_Ktp Indra.pdf" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="BC9" r:id="rId68" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/18b415a22d_Ktp Citra.pdf" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="AZ14" r:id="rId69" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/dfa763ece8_Akta Alwi.pdf" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="BA14" r:id="rId70" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/de8e9acb34_FADJAR RIZKY WAHYU RAMADHAN.pdf" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="BB14" r:id="rId71" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/f0f6082e89_Ktp fadjar.pdf" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="BC14" r:id="rId72" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/e840803a3c_Ktp Friska.pdf" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="AZ19" r:id="rId45" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/3ab518a9d9_Akta Lahir Taqi.pdf" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="BA19" r:id="rId46" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/2ef09b08a9_Surat KK.pdf" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="BB19" r:id="rId47" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/46bdf8af1a_KTP_Ayah.pdf" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="BC19" r:id="rId48" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/baeea099f9_KTP_Ibu.pdf" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="AZ16" r:id="rId49" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/d49487f4e4_new doc 2024-11-19 08.34.30.pdf" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="BA16" r:id="rId50" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/d26246e4f0_new doc 2024-11-19 08.36.12.pdf" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="BB16" r:id="rId51" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/cff6bb2410_new doc 2024-11-19 08.37.19.pdf" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="BC16" r:id="rId52" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/1be27e674d_new doc 2024-11-19 08.38.17.pdf" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="AZ32" r:id="rId53" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/b2177d5d39_1000191516.pdf" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="BA32" r:id="rId54" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/da57a46cd3_1000191321.pdf" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="BB32" r:id="rId55" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/e9aa80bc67_1000191542.pdf" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="BC32" r:id="rId56" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/33491483f6_1000191557 (1).pdf" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="AZ14" r:id="rId57" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/92ad90b487_5_6186166036379734050.pdf" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="BA14" r:id="rId58" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/b1a98e8fb9_KK Pak Anwar.pdf" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="BB14" r:id="rId59" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/798b8cea1c_5_6188314890122302338.pdf" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="BC14" r:id="rId60" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/73e8e52c10_5_6188314890122302339.pdf" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="AZ24" r:id="rId61" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/fc7eb3edd2_inbound4480207338214361210.pdf" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="BA24" r:id="rId62" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/74c38735ae_inbound1106177349400075023.pdf" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="BB24" r:id="rId63" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/019d830153_inbound1786110339143191261.pdf" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="BC24" r:id="rId64" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/0b78dcf958_inbound5086775266055316681.pdf" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="AZ8" r:id="rId65" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/fc806d5728_Fayza.pdf" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="BA8" r:id="rId66" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/9e76df9c64_Screenshot 2024-11-19 at 13.53.27.pdf" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="BB8" r:id="rId67" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/b7e80089b9_Ktp Indra.pdf" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="BC8" r:id="rId68" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/18b415a22d_Ktp Citra.pdf" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="AZ15" r:id="rId69" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/dfa763ece8_Akta Alwi.pdf" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="BA15" r:id="rId70" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/de8e9acb34_FADJAR RIZKY WAHYU RAMADHAN.pdf" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="BB15" r:id="rId71" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/f0f6082e89_Ktp fadjar.pdf" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="BC15" r:id="rId72" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/e840803a3c_Ktp Friska.pdf" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
     <hyperlink ref="AZ10" r:id="rId73" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/9fe597124f_AKTA Kelahiran Khadijah.pdf" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
     <hyperlink ref="BA10" r:id="rId74" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/80f5ff10ff_KK Irsyad.pdf" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
     <hyperlink ref="BB10" r:id="rId75" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/500a4b2e1c_KTP ABI ECI.pdf" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
     <hyperlink ref="BC10" r:id="rId76" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/70a2eb2653_KTP ABI ECI.pdf" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="AZ33" r:id="rId77" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/b72d9aa9a5_Akta kelahiran Naqiyya.pdf" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="BA33" r:id="rId78" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/36a61f587a_Kartu Keluarga.pdf" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="BB33" r:id="rId79" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/37f87a8c5a_KTP Abi.pdf" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="BC33" r:id="rId80" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/e4e2a26e6d_KTP Ibun.pdf" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="BD33" r:id="rId81" display="https://form-sd.aiis.sch.id/upload/sertif_tahsin/26c8904bcb_Syahadah juz 30 Naqiyya.pdf" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="AZ8" r:id="rId82" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/af95eeb891_Akta Askara.pdf" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="BA8" r:id="rId83" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/ac6c35c302_KK Rhesa Syahrial.pdf" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="BB8" r:id="rId84" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/7d907fbbff_KTP rhesa.pdf" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="BC8" r:id="rId85" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/d1f6a84735_KTP Ayu.pdf" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="AZ17" r:id="rId86" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/7e91c78a6b_Akte Battua.pdf" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="BA17" r:id="rId87" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/64b6fe0f1e_KK.pdf" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="BB17" r:id="rId88" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/ee7b3292fc_KTP Firman.pdf" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="BC17" r:id="rId89" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/5330f89748_KTP Ratna Ayu.pdf" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="AZ27" r:id="rId77" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/b72d9aa9a5_Akta kelahiran Naqiyya.pdf" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="BA27" r:id="rId78" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/36a61f587a_Kartu Keluarga.pdf" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="BB27" r:id="rId79" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/37f87a8c5a_KTP Abi.pdf" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="BC27" r:id="rId80" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/e4e2a26e6d_KTP Ibun.pdf" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="BD27" r:id="rId81" display="https://form-sd.aiis.sch.id/upload/sertif_tahsin/26c8904bcb_Syahadah juz 30 Naqiyya.pdf" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="AZ7" r:id="rId82" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/af95eeb891_Akta Askara.pdf" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="BA7" r:id="rId83" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/ac6c35c302_KK Rhesa Syahrial.pdf" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="BB7" r:id="rId84" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/7d907fbbff_KTP rhesa.pdf" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="BC7" r:id="rId85" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/d1f6a84735_KTP Ayu.pdf" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="AZ18" r:id="rId86" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/7e91c78a6b_Akte Battua.pdf" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="BA18" r:id="rId87" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/64b6fe0f1e_KK.pdf" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="BB18" r:id="rId88" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/ee7b3292fc_KTP Firman.pdf" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="BC18" r:id="rId89" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/5330f89748_KTP Ratna Ayu.pdf" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
     <hyperlink ref="AZ2" r:id="rId90" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/466cec3989_AKTE (1).pdf" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
     <hyperlink ref="BA2" r:id="rId91" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/77b8350fe8_KK.pdf" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
     <hyperlink ref="BB2" r:id="rId92" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/3905c7137d_KTP 1.pdf" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
@@ -9407,50 +9407,50 @@
     <hyperlink ref="BA4" r:id="rId95" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/d5040a04b4_IMG_2885 (1).pdf" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
     <hyperlink ref="BB4" r:id="rId96" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/7ea1c6f434_KTP.pdf" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
     <hyperlink ref="BC4" r:id="rId97" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/9c676a6fc6_KTP Isteri.pdf" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="AZ24" r:id="rId98" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/60609920d5_AKTA KELAHIRAN.pdf" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="BA24" r:id="rId99" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/20a89ee55e_KARTU KELUARGA.pdf" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="BB24" r:id="rId100" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/840b7b313a_KTP DIMAS ANGGORO HANANDITO.pdf" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="BC24" r:id="rId101" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/85235324d0_KTP RIZKY AMELIA.pdf" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="AZ25" r:id="rId102" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/2cd31b437a_CamScanner 11-19-2024 21.31.pdf" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="BA25" r:id="rId103" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/f87d47c38f_Kartu keluarga.pdf" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="BB25" r:id="rId104" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/660e8bb11f_b9c67e4f-3730-49cc-bd74-409c445f8613.pdf" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="BC25" r:id="rId105" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/d96fb8c468_CamScanner 11-19-2024 21.33.pdf" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="AZ30" r:id="rId106" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/cd7c018a95_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="BA30" r:id="rId107" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/4a1ce6db22_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="BB30" r:id="rId108" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/f3febfb1c4_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="BC30" r:id="rId109" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/8946360751_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="AZ19" r:id="rId110" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/fbde4ccf0b_Akta Kelahiran Hiro.pdf" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="BA19" r:id="rId111" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/431e012ff1_KK Hendra.pdf" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="BB19" r:id="rId112" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/5cfb23264a_KTP Hendra.pdf" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="BC19" r:id="rId113" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/00c82d3ead_KTP Suci.pdf" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="AZ22" r:id="rId114" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/661cada6b4_Akte Valdi Pdf.pdf" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="BA22" r:id="rId115" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/f9ff7b2968_KK Klender.pdf" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="BB22" r:id="rId116" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/3c01c59bf4_KTP Agung.pdf" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="BC22" r:id="rId117" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/0da9a6b0aa_ KTP Rachmah Pdf.pdf" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="AZ26" r:id="rId118" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/a36c34a4a8_Akta kelahiran Ranu.pdf" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="BA26" r:id="rId119" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/3599136b1e_Kartu keluarga ranu.pdf" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="BB26" r:id="rId120" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/ac2a9b67b1_KTP AYAH RANU.pdf" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="BC26" r:id="rId121" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/1beaf87b2b_KTP MAMA RANU.pdf" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="BD26" r:id="rId122" display="https://form-sd.aiis.sch.id/upload/sertif_tahsin/09bfc27edd_serifikat juz 30 ranu.pdf" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="BE26" r:id="rId123" display="https://form-sd.aiis.sch.id/upload/sertif_tahfidz/a0a5284a0e_serifikat juz 29 ranu.pdf" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="AZ27" r:id="rId124" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/https:/ppdb.aiis.sch.id/upload/akte_kelahiran/9f0424470e_CS PDF 2024-11-27 07.55.20.pdf" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
-    <hyperlink ref="BA27" r:id="rId125" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/https:/ppdb.aiis.sch.id/upload/kartu_keluarga/49afded46d_KK Ibra - Yesi - Rafi.pdf" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
-    <hyperlink ref="BB27" r:id="rId126" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/https:/ppdb.aiis.sch.id/upload/ktp_ayah/693c4b0b7c_KTP Ibra Baru(1).pdf" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
-    <hyperlink ref="BC27" r:id="rId127" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/https:/ppdb.aiis.sch.id/upload/ktp_ibu/bab1287e49_Scan 27 Nov 24 11Ã‚Â·42Ã‚Â·17.pdf" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
-    <hyperlink ref="BD27" r:id="rId128" display="https://form-sd.aiis.sch.id/upload/sertif_tahsin/-" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
-    <hyperlink ref="BE27" r:id="rId129" display="https://form-sd.aiis.sch.id/upload/sertif_tahfidz/-" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
-    <hyperlink ref="BC31" r:id="rId130" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/70adab2361_KelDesa 2.pdf" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="BB31" r:id="rId131" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/d07d52f968_KARTU KELUARGA 2 Sedang.pdf" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="BA31" r:id="rId132" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/9118faf9f2_KARTU KELUARGA 2 Kecil.pdf" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="AZ31" r:id="rId133" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/222d9edc4d_IMG_1283 2 Kecil 2.pdf" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="AZ25" r:id="rId98" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/60609920d5_AKTA KELAHIRAN.pdf" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="BA25" r:id="rId99" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/20a89ee55e_KARTU KELUARGA.pdf" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="BB25" r:id="rId100" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/840b7b313a_KTP DIMAS ANGGORO HANANDITO.pdf" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="BC25" r:id="rId101" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/85235324d0_KTP RIZKY AMELIA.pdf" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="AZ26" r:id="rId102" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/2cd31b437a_CamScanner 11-19-2024 21.31.pdf" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="BA26" r:id="rId103" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/f87d47c38f_Kartu keluarga.pdf" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="BB26" r:id="rId104" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/660e8bb11f_b9c67e4f-3730-49cc-bd74-409c445f8613.pdf" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="BC26" r:id="rId105" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/d96fb8c468_CamScanner 11-19-2024 21.33.pdf" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="AZ33" r:id="rId106" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/cd7c018a95_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="BA33" r:id="rId107" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/4a1ce6db22_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="BB33" r:id="rId108" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/f3febfb1c4_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="BC33" r:id="rId109" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/8946360751_akte ale, kk, ktp scan.pdf" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="AZ20" r:id="rId110" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/fbde4ccf0b_Akta Kelahiran Hiro.pdf" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="BA20" r:id="rId111" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/431e012ff1_KK Hendra.pdf" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="BB20" r:id="rId112" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/5cfb23264a_KTP Hendra.pdf" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="BC20" r:id="rId113" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/00c82d3ead_KTP Suci.pdf" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="AZ23" r:id="rId114" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/661cada6b4_Akte Valdi Pdf.pdf" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="BA23" r:id="rId115" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/f9ff7b2968_KK Klender.pdf" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="BB23" r:id="rId116" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/3c01c59bf4_KTP Agung.pdf" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="BC23" r:id="rId117" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/0da9a6b0aa_ KTP Rachmah Pdf.pdf" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="AZ29" r:id="rId118" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/a36c34a4a8_Akta kelahiran Ranu.pdf" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="BA29" r:id="rId119" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/3599136b1e_Kartu keluarga ranu.pdf" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="BB29" r:id="rId120" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/ac2a9b67b1_KTP AYAH RANU.pdf" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="BC29" r:id="rId121" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/1beaf87b2b_KTP MAMA RANU.pdf" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="BD29" r:id="rId122" display="https://form-sd.aiis.sch.id/upload/sertif_tahsin/09bfc27edd_serifikat juz 30 ranu.pdf" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="BE29" r:id="rId123" display="https://form-sd.aiis.sch.id/upload/sertif_tahfidz/a0a5284a0e_serifikat juz 29 ranu.pdf" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="AZ30" r:id="rId124" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/https:/ppdb.aiis.sch.id/upload/akte_kelahiran/9f0424470e_CS PDF 2024-11-27 07.55.20.pdf" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="BA30" r:id="rId125" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/https:/ppdb.aiis.sch.id/upload/kartu_keluarga/49afded46d_KK Ibra - Yesi - Rafi.pdf" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="BB30" r:id="rId126" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/https:/ppdb.aiis.sch.id/upload/ktp_ayah/693c4b0b7c_KTP Ibra Baru(1).pdf" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="BC30" r:id="rId127" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/https:/ppdb.aiis.sch.id/upload/ktp_ibu/bab1287e49_Scan 27 Nov 24 11Ã‚Â·42Ã‚Â·17.pdf" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="BD30" r:id="rId128" display="https://form-sd.aiis.sch.id/upload/sertif_tahsin/-" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="BE30" r:id="rId129" display="https://form-sd.aiis.sch.id/upload/sertif_tahfidz/-" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="BC34" r:id="rId130" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/70adab2361_KelDesa 2.pdf" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="BB34" r:id="rId131" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/d07d52f968_KARTU KELUARGA 2 Sedang.pdf" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="BA34" r:id="rId132" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/9118faf9f2_KARTU KELUARGA 2 Kecil.pdf" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="AZ34" r:id="rId133" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/222d9edc4d_IMG_1283 2 Kecil 2.pdf" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
     <hyperlink ref="AZ6" r:id="rId134" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/92ad90b487_5_6186166036379734050.pdf" xr:uid="{BB7884C8-33F0-487A-B0C1-4EDCBD9B078F}"/>
     <hyperlink ref="BA6" r:id="rId135" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/b1a98e8fb9_KK Pak Anwar.pdf" xr:uid="{56BDA3F5-D03F-472F-8D0C-B98590B149A6}"/>
     <hyperlink ref="BB6" r:id="rId136" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/798b8cea1c_5_6188314890122302338.pdf" xr:uid="{A36D8D88-6F77-43C1-A21B-60E6873548EF}"/>
     <hyperlink ref="BC6" r:id="rId137" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/73e8e52c10_5_6188314890122302339.pdf" xr:uid="{CEA6DD6B-7308-4D74-B2BA-F25318277EE4}"/>
-    <hyperlink ref="AZ34" r:id="rId138" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/d11acd0d90_AKTE NAUSHA.pdf" xr:uid="{46255E52-F4BA-4B00-906C-70F3C778037E}"/>
-    <hyperlink ref="BA34" r:id="rId139" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/8e41fd8874_KK6.pdf" xr:uid="{8855D5B8-8CA5-414E-A4A2-38E806B05C6B}"/>
-    <hyperlink ref="BB34" r:id="rId140" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/1c348fe112_KTP AYAH.pdf" xr:uid="{4ABFFCAE-E762-4EA8-AD01-512D4321165B}"/>
-    <hyperlink ref="BC34" r:id="rId141" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/49895d1484_KTP IBUY.pdf" xr:uid="{302C460A-F47E-4C93-9AE7-533F3FDAB6B1}"/>
+    <hyperlink ref="AZ28" r:id="rId138" display="https://form-sd.aiis.sch.id/upload/akte_kelahiran/d11acd0d90_AKTE NAUSHA.pdf" xr:uid="{46255E52-F4BA-4B00-906C-70F3C778037E}"/>
+    <hyperlink ref="BA28" r:id="rId139" display="https://form-sd.aiis.sch.id/upload/kartu_keluarga/8e41fd8874_KK6.pdf" xr:uid="{8855D5B8-8CA5-414E-A4A2-38E806B05C6B}"/>
+    <hyperlink ref="BB28" r:id="rId140" display="https://form-sd.aiis.sch.id/upload/ktp_ayah/1c348fe112_KTP AYAH.pdf" xr:uid="{4ABFFCAE-E762-4EA8-AD01-512D4321165B}"/>
+    <hyperlink ref="BC28" r:id="rId141" display="https://form-sd.aiis.sch.id/upload/ktp_ibu/49895d1484_KTP IBUY.pdf" xr:uid="{302C460A-F47E-4C93-9AE7-533F3FDAB6B1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId142"/>

--- a/admin/uploads/data_ppdb_sd_tes_importdata.xlsx
+++ b/admin/uploads/data_ppdb_sd_tes_importdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\format excel import data siswa aplikasi daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F5320-5672-4F6F-B020-C87F5D7E5C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D008784-9F61-4A59-B0B9-F6868875DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="617">
   <si>
     <t>pendaftaran_kelas</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BD10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL11" sqref="BL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5413,8 +5413,8 @@
       <c r="BG14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="BH14" s="6" t="s">
-        <v>177</v>
+      <c r="BH14" s="6">
+        <v>45614.579050925924</v>
       </c>
       <c r="BI14" s="2">
         <v>202502007</v>
